--- a/test/PlanilhaGastos.xlsx
+++ b/test/PlanilhaGastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Data Compra</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Cimento Campeão CPII</t>
   </si>
   <si>
-    <t>Loja do Zé</t>
+    <t>Loja do Ze</t>
   </si>
   <si>
     <t>saco</t>
@@ -47,6 +47,30 @@
   </si>
   <si>
     <t>560.00</t>
+  </si>
+  <si>
+    <t>Lentilha</t>
+  </si>
+  <si>
+    <t>Loja da Maria</t>
+  </si>
+  <si>
+    <t>Lojas Americanas</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>Agrofilito</t>
+  </si>
+  <si>
+    <t>Loja Da Maria</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
   </si>
 </sst>
 </file>
@@ -323,7 +347,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="18.63"/>
-    <col customWidth="1" min="3" max="3" width="13.5"/>
+    <col customWidth="1" min="3" max="3" width="14.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -372,6 +396,121 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>44440.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>44470.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>840.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>44440.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>44228.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>44256.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
